--- a/generated_docs/WR_89894498_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89894498_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1960.36</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,18 +833,18 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLD-EYE-ARM</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLD, Eyebolt Deadend, Arm</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -863,17 +863,17 @@
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
@@ -901,18 +901,18 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>INS-15-D-S</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>INS,15kV,Deadend,Polymer</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,21 +931,89 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E23" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="inlineStr"/>
+      <c r="H23" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H22" s="16" t="n">
-        <v>1960.36</v>
+      <c r="H24" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -955,9 +1023,9 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A22:G22"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>

--- a/generated_docs/WR_89894498_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89894498_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>1960.36</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Cameron Emerson</t>
+          <t>Zachary Loggins</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P57</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="18">
@@ -833,18 +829,18 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-ARM</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +850,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>PLD, Eyebolt Deadend, Arm</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -863,17 +859,17 @@
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
@@ -901,18 +897,18 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,89 +927,21 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E22" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10" t="inlineStr"/>
-      <c r="H22" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C23" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D23" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E23" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="inlineStr"/>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="15" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H24" s="16" t="n">
-        <v>0</v>
+      <c r="H22" s="16" t="n">
+        <v>1960.36</v>
       </c>
     </row>
   </sheetData>
@@ -1023,9 +951,9 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
